--- a/Voiz_project/data/free_cluster_table_template.xlsx
+++ b/Voiz_project/data/free_cluster_table_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!! GitHub\DataCracy\myscala\Voiz_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A35B0-5DE8-419C-865A-BF8489F0DB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E97EBF-5CE4-48FC-A0D7-B71EED945DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$48</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>Cnt</t>
   </si>
@@ -314,13 +315,82 @@
   </si>
   <si>
     <t>Potential</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>F&amp;B</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Loyal Customer</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Potential Loyalists</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>Can't Lose Them</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>Defrost</t>
+  </si>
+  <si>
+    <t>Hibernating</t>
+  </si>
+  <si>
+    <t>2.active</t>
+  </si>
+  <si>
+    <t>1.sleep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +419,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +469,326 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB788"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BB8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76A882"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF62B487"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60B587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6BAF84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF61B587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63B386"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF859E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AAF85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEECB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66B186"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64B386"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6EAC84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D46C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7AA580"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF959579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C9078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA88974"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C9A7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CE59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92967A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CA480"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA18D76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB38272"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E997B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75A882"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF889C7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73AA82"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67B185"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90977B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6D163"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA8774"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AB83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF849F7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B9B7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80A27F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93967A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D776"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA68A75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -412,11 +824,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -449,50 +1035,266 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="55" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="57" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,13 +1634,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2:P48"/>
+      <selection pane="bottomRight" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +1659,7 @@
     <col min="17" max="17" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -904,11 +1707,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:21" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -947,19 +1750,19 @@
       <c r="N2">
         <v>91</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
@@ -996,15 +1799,15 @@
       <c r="N3">
         <v>36</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1041,17 +1844,17 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:21" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1090,17 +1893,17 @@
       <c r="N5">
         <v>91</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="21" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1137,15 +1940,15 @@
       <c r="N6">
         <v>36</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="21" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1182,17 +1985,17 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="20" t="s">
+      <c r="O7" s="20"/>
+      <c r="P7" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1231,22 +2034,22 @@
       <c r="N8">
         <v>91</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="25" t="s">
         <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1283,17 +2086,17 @@
       <c r="N9">
         <v>36</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="25"/>
       <c r="P9" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="23"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1330,18 +2133,18 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="25"/>
+      <c r="P10" s="14" t="s">
         <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1380,16 +2183,16 @@
       <c r="N11">
         <v>91</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="25"/>
       <c r="P11" t="s">
         <v>86</v>
       </c>
       <c r="Q11" s="8"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1426,16 +2229,16 @@
       <c r="N12">
         <v>36</v>
       </c>
-      <c r="O12" s="14"/>
+      <c r="O12" s="25"/>
       <c r="P12" t="s">
         <v>86</v>
       </c>
       <c r="Q12" s="8"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1472,18 +2275,18 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="23" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="15" t="s">
         <v>96</v>
       </c>
       <c r="Q13" s="8"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1522,17 +2325,17 @@
       <c r="N14">
         <v>91</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1569,15 +2372,15 @@
       <c r="N15">
         <v>36</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="20" t="s">
+      <c r="O15" s="23"/>
+      <c r="P15" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1614,17 +2417,17 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="22" t="s">
+      <c r="O16" s="23"/>
+      <c r="P16" s="14" t="s">
         <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1663,17 +2466,17 @@
       <c r="N17">
         <v>91</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1710,15 +2513,15 @@
       <c r="N18">
         <v>36</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="21" t="s">
+      <c r="O18" s="25"/>
+      <c r="P18" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1755,15 +2558,15 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="23" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="15" t="s">
         <v>90</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1802,20 +2605,20 @@
       <c r="N20">
         <v>91</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="20" t="s">
         <v>74</v>
       </c>
       <c r="P20" t="s">
         <v>86</v>
       </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1852,16 +2655,16 @@
       <c r="N21">
         <v>36</v>
       </c>
-      <c r="O21" s="13"/>
+      <c r="O21" s="20"/>
       <c r="P21" t="s">
         <v>86</v>
       </c>
       <c r="Q21" s="8"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1898,16 +2701,16 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="24" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="16" t="s">
         <v>96</v>
       </c>
       <c r="Q22" s="8"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1946,16 +2749,16 @@
       <c r="N23">
         <v>91</v>
       </c>
-      <c r="O23" s="13"/>
+      <c r="O23" s="20"/>
       <c r="P23" t="s">
         <v>86</v>
       </c>
       <c r="Q23" s="8"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="R23" s="23"/>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1992,16 +2795,16 @@
       <c r="N24">
         <v>36</v>
       </c>
-      <c r="O24" s="13"/>
+      <c r="O24" s="20"/>
       <c r="P24" t="s">
         <v>86</v>
       </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="15"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2038,18 +2841,18 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="24" t="s">
+      <c r="O25" s="20"/>
+      <c r="P25" s="16" t="s">
         <v>96</v>
       </c>
       <c r="Q25" s="8"/>
-      <c r="R25" s="15"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="R25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2088,16 +2891,16 @@
       <c r="N26">
         <v>91</v>
       </c>
-      <c r="O26" s="16" t="s">
+      <c r="O26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
@@ -2134,14 +2937,14 @@
       <c r="N27">
         <v>36</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="20" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
         <v>24</v>
       </c>
@@ -2178,14 +2981,14 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="25" t="s">
+      <c r="O28" s="26"/>
+      <c r="P28" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2224,20 +3027,20 @@
       <c r="N29">
         <v>91</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="O29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q29" s="8"/>
-      <c r="R29" s="15" t="s">
+      <c r="R29" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
@@ -2274,16 +3077,16 @@
       <c r="N30">
         <v>36</v>
       </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="21" t="s">
+      <c r="O30" s="23"/>
+      <c r="P30" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q30" s="8"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
@@ -2320,16 +3123,16 @@
       <c r="N31">
         <v>0</v>
       </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="23" t="s">
+      <c r="O31" s="23"/>
+      <c r="P31" s="15" t="s">
         <v>81</v>
       </c>
       <c r="Q31" s="8"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="R31" s="23"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2368,20 +3171,20 @@
       <c r="N32">
         <v>91</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="O32" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="P32" s="21" t="s">
+      <c r="P32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q32" s="8"/>
-      <c r="R32" s="15" t="s">
+      <c r="R32" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
@@ -2418,16 +3221,16 @@
       <c r="N33">
         <v>37</v>
       </c>
-      <c r="O33" s="15"/>
-      <c r="P33" s="21" t="s">
+      <c r="O33" s="23"/>
+      <c r="P33" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q33" s="8"/>
-      <c r="R33" s="15"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
@@ -2464,16 +3267,16 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="23" t="s">
+      <c r="O34" s="23"/>
+      <c r="P34" s="15" t="s">
         <v>81</v>
       </c>
       <c r="Q34" s="8"/>
-      <c r="R34" s="15"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2512,7 +3315,7 @@
       <c r="N35">
         <v>91</v>
       </c>
-      <c r="O35" s="14" t="s">
+      <c r="O35" s="25" t="s">
         <v>77</v>
       </c>
       <c r="P35" s="3" t="s">
@@ -2521,8 +3324,8 @@
       <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="2" t="s">
         <v>23</v>
       </c>
@@ -2559,15 +3362,15 @@
       <c r="N36">
         <v>41</v>
       </c>
-      <c r="O36" s="14"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2604,17 +3407,17 @@
       <c r="N37">
         <v>0</v>
       </c>
-      <c r="O37" s="14"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="3" t="s">
         <v>92</v>
       </c>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2653,17 +3456,17 @@
       <c r="N38">
         <v>92</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O38" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="2" t="s">
         <v>23</v>
       </c>
@@ -2700,15 +3503,15 @@
       <c r="N39">
         <v>36</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="20" t="s">
+      <c r="O39" s="20"/>
+      <c r="P39" s="12" t="s">
         <v>93</v>
       </c>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
@@ -2745,15 +3548,15 @@
       <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="25" t="s">
+      <c r="O40" s="20"/>
+      <c r="P40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
+    <row r="41" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2792,17 +3595,17 @@
       <c r="N41">
         <v>92</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="P41" s="21" t="s">
+      <c r="P41" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
@@ -2839,15 +3642,15 @@
       <c r="N42">
         <v>37</v>
       </c>
-      <c r="O42" s="19"/>
-      <c r="P42" s="21" t="s">
+      <c r="O42" s="22"/>
+      <c r="P42" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
@@ -2884,15 +3687,15 @@
       <c r="N43">
         <v>0</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="23" t="s">
+      <c r="O43" s="22"/>
+      <c r="P43" s="15" t="s">
         <v>81</v>
       </c>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
+    <row r="44" spans="1:18" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2931,17 +3734,17 @@
       <c r="N44">
         <v>92</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="P44" s="21" t="s">
+      <c r="P44" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
@@ -2978,15 +3781,15 @@
       <c r="N45">
         <v>38</v>
       </c>
-      <c r="O45" s="18"/>
-      <c r="P45" s="21" t="s">
+      <c r="O45" s="21"/>
+      <c r="P45" s="13" t="s">
         <v>94</v>
       </c>
       <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3023,15 +3826,15 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="18"/>
-      <c r="P46" s="23" t="s">
+      <c r="O46" s="21"/>
+      <c r="P46" s="15" t="s">
         <v>81</v>
       </c>
       <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3070,15 +3873,15 @@
       <c r="N47">
         <v>152</v>
       </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="26" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="18" t="s">
         <v>92</v>
       </c>
       <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="2" t="s">
         <v>23</v>
       </c>
@@ -3115,36 +3918,22 @@
       <c r="N48">
         <v>80</v>
       </c>
-      <c r="O48" s="18"/>
-      <c r="P48" s="26" t="s">
+      <c r="O48" s="21"/>
+      <c r="P48" s="18" t="s">
         <v>92</v>
       </c>
       <c r="Q48" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R48" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R48" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Loyal"/>
+        <filter val="Outlier"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="37">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="O44:O48"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="R8:R13"/>
-    <mergeCell ref="R20:R25"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="O2:O7"/>
-    <mergeCell ref="O8:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="O20:O25"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="O29:O31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
@@ -3161,8 +3950,968 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="O2:O7"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="O20:O25"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="O44:O48"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="R8:R13"/>
+    <mergeCell ref="R20:R25"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="R32:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB0DB4-43A1-41AB-8A35-A0FD35EC5A25}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="33">
+        <v>4.93</v>
+      </c>
+      <c r="E2" s="34">
+        <v>5</v>
+      </c>
+      <c r="F2" s="34">
+        <v>5</v>
+      </c>
+      <c r="G2" s="35">
+        <v>4.67</v>
+      </c>
+      <c r="H2" s="34">
+        <v>5</v>
+      </c>
+      <c r="I2" s="34">
+        <v>5</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="87">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="E3" s="33">
+        <v>4.93</v>
+      </c>
+      <c r="F3" s="38">
+        <v>4.91</v>
+      </c>
+      <c r="G3" s="39">
+        <v>4.79</v>
+      </c>
+      <c r="H3" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I3" s="41">
+        <v>4.87</v>
+      </c>
+      <c r="J3" s="42">
+        <v>3</v>
+      </c>
+      <c r="K3" s="85"/>
+      <c r="L3" s="88"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>5</v>
+      </c>
+      <c r="G4" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="34">
+        <v>5</v>
+      </c>
+      <c r="I4" s="34">
+        <v>5</v>
+      </c>
+      <c r="J4" s="36">
+        <v>1</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="L4" s="89"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="81"/>
+      <c r="B5" s="90">
+        <v>44230</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="34">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34">
+        <v>5</v>
+      </c>
+      <c r="F5" s="34">
+        <v>5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5</v>
+      </c>
+      <c r="H5" s="34">
+        <v>5</v>
+      </c>
+      <c r="I5" s="34">
+        <v>5</v>
+      </c>
+      <c r="J5" s="42">
+        <v>3</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="87">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="E6" s="34">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="34">
+        <v>5</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="45">
+        <v>2</v>
+      </c>
+      <c r="K6" s="85"/>
+      <c r="L6" s="88"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="81"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="47">
+        <v>0</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="89"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81"/>
+      <c r="B8" s="90">
+        <v>44198</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="48">
+        <v>4.84</v>
+      </c>
+      <c r="E8" s="49">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F8" s="49">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G8" s="50">
+        <v>4.75</v>
+      </c>
+      <c r="H8" s="49">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I8" s="49">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J8" s="51">
+        <v>10</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="87">
+        <v>0.2712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4.62</v>
+      </c>
+      <c r="E9" s="50">
+        <v>4.75</v>
+      </c>
+      <c r="F9" s="35">
+        <v>4.67</v>
+      </c>
+      <c r="G9" s="35">
+        <v>4.67</v>
+      </c>
+      <c r="H9" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="I9" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="51">
+        <v>10</v>
+      </c>
+      <c r="K9" s="85"/>
+      <c r="L9" s="88"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="83"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="53">
+        <v>4.33</v>
+      </c>
+      <c r="E10" s="52">
+        <v>4.62</v>
+      </c>
+      <c r="F10" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="G10" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="H10" s="55">
+        <v>4.12</v>
+      </c>
+      <c r="I10" s="56">
+        <v>4.43</v>
+      </c>
+      <c r="J10" s="57">
+        <v>12</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="89"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="58">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E11" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F11" s="60">
+        <v>4.2</v>
+      </c>
+      <c r="G11" s="61">
+        <v>4</v>
+      </c>
+      <c r="H11" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I11" s="62">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="87">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="63">
+        <v>4.68</v>
+      </c>
+      <c r="E12" s="63">
+        <v>4.68</v>
+      </c>
+      <c r="F12" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="G12" s="64">
+        <v>4.47</v>
+      </c>
+      <c r="H12" s="64">
+        <v>4.47</v>
+      </c>
+      <c r="I12" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="J12" s="45">
+        <v>2</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="88"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="E13" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="F13" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="G13" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="I13" s="37">
+        <v>4.88</v>
+      </c>
+      <c r="J13" s="45">
+        <v>2</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="81"/>
+      <c r="B14" s="90">
+        <v>44230</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="34">
+        <v>5</v>
+      </c>
+      <c r="E14" s="34">
+        <v>5</v>
+      </c>
+      <c r="F14" s="34">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34">
+        <v>5</v>
+      </c>
+      <c r="H14" s="34">
+        <v>5</v>
+      </c>
+      <c r="I14" s="34">
+        <v>5</v>
+      </c>
+      <c r="J14" s="36">
+        <v>1</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="87">
+        <v>0.2712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="34">
+        <v>5</v>
+      </c>
+      <c r="E15" s="34">
+        <v>5</v>
+      </c>
+      <c r="F15" s="34">
+        <v>5</v>
+      </c>
+      <c r="G15" s="34">
+        <v>5</v>
+      </c>
+      <c r="H15" s="34">
+        <v>5</v>
+      </c>
+      <c r="I15" s="34">
+        <v>5</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="94"/>
+      <c r="L15" s="88"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="81"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="34">
+        <v>5</v>
+      </c>
+      <c r="E16" s="34">
+        <v>5</v>
+      </c>
+      <c r="F16" s="34">
+        <v>5</v>
+      </c>
+      <c r="G16" s="34">
+        <v>5</v>
+      </c>
+      <c r="H16" s="34">
+        <v>5</v>
+      </c>
+      <c r="I16" s="34">
+        <v>5</v>
+      </c>
+      <c r="J16" s="36">
+        <v>1</v>
+      </c>
+      <c r="K16" s="94"/>
+      <c r="L16" s="88"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="81"/>
+      <c r="B17" s="90">
+        <v>44198</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="63">
+        <v>4.68</v>
+      </c>
+      <c r="E17" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F17" s="65">
+        <v>4.7</v>
+      </c>
+      <c r="G17" s="62">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H17" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I17" s="66">
+        <v>4.83</v>
+      </c>
+      <c r="J17" s="67">
+        <v>16</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="88"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="68">
+        <v>4.38</v>
+      </c>
+      <c r="E18" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G18" s="61">
+        <v>4</v>
+      </c>
+      <c r="H18" s="62">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I18" s="53">
+        <v>4.33</v>
+      </c>
+      <c r="J18" s="69">
+        <v>11</v>
+      </c>
+      <c r="K18" s="94"/>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="70">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E19" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="61">
+        <v>4</v>
+      </c>
+      <c r="G19" s="61">
+        <v>4</v>
+      </c>
+      <c r="H19" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="I19" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="J19" s="45">
+        <v>2</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="89"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="47">
+        <v>0</v>
+      </c>
+      <c r="K20" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="87">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="48">
+        <v>4.84</v>
+      </c>
+      <c r="E21" s="41">
+        <v>4.87</v>
+      </c>
+      <c r="F21" s="34">
+        <v>5</v>
+      </c>
+      <c r="G21" s="52">
+        <v>4.62</v>
+      </c>
+      <c r="H21" s="73">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I21" s="34">
+        <v>5</v>
+      </c>
+      <c r="J21" s="74">
+        <v>4</v>
+      </c>
+      <c r="K21" s="97"/>
+      <c r="L21" s="88"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="47">
+        <v>0</v>
+      </c>
+      <c r="K22" s="97"/>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
+      <c r="B23" s="90">
+        <v>44230</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="E23" s="34">
+        <v>5</v>
+      </c>
+      <c r="F23" s="34">
+        <v>5</v>
+      </c>
+      <c r="G23" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="H23" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="I23" s="34">
+        <v>5</v>
+      </c>
+      <c r="J23" s="45">
+        <v>2</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="L23" s="88"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E24" s="34">
+        <v>5</v>
+      </c>
+      <c r="F24" s="34">
+        <v>5</v>
+      </c>
+      <c r="G24" s="61">
+        <v>4</v>
+      </c>
+      <c r="H24" s="34">
+        <v>5</v>
+      </c>
+      <c r="I24" s="61">
+        <v>4</v>
+      </c>
+      <c r="J24" s="36">
+        <v>1</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="88"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="41">
+        <v>4.87</v>
+      </c>
+      <c r="E25" s="34">
+        <v>5</v>
+      </c>
+      <c r="F25" s="53">
+        <v>4.33</v>
+      </c>
+      <c r="G25" s="34">
+        <v>5</v>
+      </c>
+      <c r="H25" s="34">
+        <v>5</v>
+      </c>
+      <c r="I25" s="34">
+        <v>5</v>
+      </c>
+      <c r="J25" s="36">
+        <v>1</v>
+      </c>
+      <c r="K25" s="98"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="81"/>
+      <c r="B26" s="90">
+        <v>44198</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="75">
+        <v>4.51</v>
+      </c>
+      <c r="E26" s="35">
+        <v>4.67</v>
+      </c>
+      <c r="F26" s="76">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G26" s="77">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H26" s="76">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I26" s="76">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J26" s="51">
+        <v>10</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="87">
+        <v>0.26269999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="78">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E27" s="52">
+        <v>4.62</v>
+      </c>
+      <c r="F27" s="68">
+        <v>4.38</v>
+      </c>
+      <c r="G27" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="H27" s="55">
+        <v>4.12</v>
+      </c>
+      <c r="I27" s="68">
+        <v>4.38</v>
+      </c>
+      <c r="J27" s="79">
+        <v>9</v>
+      </c>
+      <c r="K27" s="97"/>
+      <c r="L27" s="88"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="83"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="56">
+        <v>4.42</v>
+      </c>
+      <c r="E28" s="52">
+        <v>4.62</v>
+      </c>
+      <c r="F28" s="35">
+        <v>4.67</v>
+      </c>
+      <c r="G28" s="68">
+        <v>4.38</v>
+      </c>
+      <c r="H28" s="54">
+        <v>4.25</v>
+      </c>
+      <c r="I28" s="80">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J28" s="57">
+        <v>12</v>
+      </c>
+      <c r="K28" s="98"/>
+      <c r="L28" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>